--- a/templates/Plasmodium/NOMADS_PCR_Plasmo_Worksheet.xlsx
+++ b/templates/Plasmodium/NOMADS_PCR_Plasmo_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739247D8-A81C-450D-92C1-EA227F1CDF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6896F059-AF23-44C1-BF5B-8FE247FF51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="268">
   <si>
     <t>Assumptions</t>
   </si>
@@ -1055,12 +1055,6 @@
     <t>Storage location for the post-PCR  gel picture</t>
   </si>
   <si>
-    <t>Missing values evaluate to empty cells in metadata tabs</t>
-  </si>
-  <si>
-    <t>Sheets protected to prevent users inadvertantly overwriting calculations</t>
-  </si>
-  <si>
     <t>1. Select a complete entry i.e. for names you would highlight two cells e.g. M5 and N5</t>
   </si>
   <si>
@@ -1154,6 +1148,18 @@
       </rPr>
       <t>warehouse</t>
     </r>
+  </si>
+  <si>
+    <t>SWGA product (EquiPhi)</t>
+  </si>
+  <si>
+    <t>EquiPhi</t>
+  </si>
+  <si>
+    <t>Added ability to filter PCR table</t>
+  </si>
+  <si>
+    <t>Addition of EquiPhi (not finished)</t>
   </si>
 </sst>
 </file>
@@ -1593,7 +1599,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1654,9 +1660,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,9 +1677,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,112 +1757,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1884,25 +1778,144 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1916,6 +1929,113 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2070,25 +2190,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -2110,30 +2211,6 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2215,40 +2292,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2278,35 +2321,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2321,23 +2335,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="3">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="15">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="2">
       <calculatedColumnFormula>IF(OR(G3="",H3=""),"",SUM(G3*H3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2355,20 +2369,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="E2:G5" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}" name="tbl_template" displayName="tbl_template" ref="E7:K9" totalsRowShown="0">
-  <autoFilter ref="E7:K9" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}" name="tbl_template" displayName="tbl_template" ref="E7:K10" totalsRowShown="0">
+  <autoFilter ref="E7:K10" xr:uid="{7577A94C-B56B-4F54-BD7F-5F341857DAB8}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F4C3F9A8-1008-4F6B-840D-280BD6FE787E}" name="Template"/>
     <tableColumn id="7" xr3:uid="{70C3F764-E116-465A-8CFC-BDB26F364548}" name="Template Volume"/>
@@ -2434,19 +2448,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
   <autoFilter ref="A1:F97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="13">
       <calculatedColumnFormula>IF(LEN(PCR!C3),PCR!C3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="12">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="11">
       <calculatedColumnFormula>IF(LEN(PCR!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="10">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="9">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -2761,7 +2775,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I19"/>
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2770,263 +2784,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="K2" s="98" t="s">
+      <c r="H2" s="72"/>
+      <c r="K2" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="K3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="96"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="31" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="97"/>
+      <c r="L4" s="63"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="92" t="str">
+      <c r="B5" s="76"/>
+      <c r="C5" s="79" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!M3:N5,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="101"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="93" t="str">
+      <c r="B6" s="76"/>
+      <c r="C6" s="80" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="28"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="27"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
       <c r="G7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="G8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="78" t="str">
+      <c r="B9" s="93"/>
+      <c r="C9" s="88" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="20" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="93" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="82" t="str">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="84" t="str">
+      <c r="B12" s="76"/>
+      <c r="C12" s="82" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="84" t="str">
+      <c r="B13" s="76"/>
+      <c r="C13" s="82" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3052,29 +3066,29 @@
       <c r="G19" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="67" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67" t="str">
+      <c r="E20" s="96"/>
+      <c r="F20" s="96" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G20" s="67"/>
+      <c r="G20" s="96"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="85" t="s">
+      <c r="J20" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="85"/>
+      <c r="K20" s="83"/>
       <c r="L20" s="12" t="s">
         <v>14</v>
       </c>
@@ -3083,171 +3097,171 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="76">
+      <c r="A21" s="68">
         <f>pcr_dna_source</f>
         <v>0</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="68">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="66" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="66"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="99">
+      <c r="G21" s="97"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="65">
         <v>93</v>
       </c>
-      <c r="K21" s="99"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="74">
+      <c r="A22" s="92">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],3,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="68">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="67">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="65">
+      <c r="E22" s="67"/>
+      <c r="F22" s="91">
         <f>SUM(D22*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="100">
+      <c r="G22" s="91"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="66">
         <v>98</v>
       </c>
-      <c r="K22" s="100"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="102" t="s">
+      <c r="M22" s="70" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="str">
+      <c r="A23" s="92" t="str">
         <f>IF(D23=0,"-","10mM dNTPs")</f>
         <v>-</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="68">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="67">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],5,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="65" t="str">
+      <c r="E23" s="67"/>
+      <c r="F23" s="91" t="str">
         <f>IF(D23=0,"",SUM(D23*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="68">
+      <c r="G23" s="91"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="67">
         <v>50</v>
       </c>
-      <c r="K23" s="68"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="102"/>
+      <c r="M23" s="70"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="str">
+      <c r="A24" s="92" t="str">
         <f>IF(D24=0,"-","Buffer")</f>
         <v>-</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="68">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="67">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="65" t="str">
+      <c r="E24" s="67"/>
+      <c r="F24" s="91" t="str">
         <f>IF(D24=0,"",SUM(D24*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="76">
+      <c r="G24" s="91"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="68">
         <v>60</v>
       </c>
-      <c r="K24" s="76"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="102"/>
+      <c r="M24" s="70"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="68">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="67">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="65" t="str">
+      <c r="E25" s="67"/>
+      <c r="F25" s="91" t="str">
         <f>IF(D25=0,"",SUM(D25*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="68">
+      <c r="G25" s="91"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="67">
         <v>60</v>
       </c>
-      <c r="K25" s="68"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92">
         <f>SUM(25-SUM(D21:E25))</f>
         <v>25</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="65">
+      <c r="E26" s="92"/>
+      <c r="F26" s="91">
         <f>SUM(D26*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="8"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="80">
+      <c r="D27" s="90">
         <f>SUM(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="90"/>
       <c r="F27" s="14" t="str">
         <f>CONCATENATE("Add ",SUM(D22:D26)," µl of MM to each well")</f>
         <v>Add 25 µl of MM to each well</v>
@@ -3266,22 +3280,22 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="94" t="s">
+      <c r="K28" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3295,11 +3309,11 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="95" t="s">
+      <c r="K30" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -3325,463 +3339,463 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="B33" s="34">
+      <c r="B33" s="32">
         <v>1</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="32">
         <v>2</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="32">
         <v>3</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="32">
         <v>4</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="32">
         <v>5</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="32">
         <v>6</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="32">
         <v>7</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="32">
         <v>8</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="32">
         <v>9</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="32">
         <v>10</v>
       </c>
-      <c r="L33" s="34">
+      <c r="L33" s="32">
         <v>11</v>
       </c>
-      <c r="M33" s="34">
+      <c r="M33" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="33" t="str">
+      <c r="B34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D3), "",PCR!D3)</f>
         <v/>
       </c>
-      <c r="C34" s="33" t="str">
+      <c r="C34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D11), "",PCR!D11)</f>
         <v/>
       </c>
-      <c r="D34" s="33" t="str">
+      <c r="D34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D19), "",PCR!D19)</f>
         <v/>
       </c>
-      <c r="E34" s="33" t="str">
+      <c r="E34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D27), "",PCR!D27)</f>
         <v/>
       </c>
-      <c r="F34" s="33" t="str">
+      <c r="F34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D35), "",PCR!D35)</f>
         <v/>
       </c>
-      <c r="G34" s="33" t="str">
+      <c r="G34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D43), "",PCR!D43)</f>
         <v/>
       </c>
-      <c r="H34" s="33" t="str">
+      <c r="H34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D51), "",PCR!D51)</f>
         <v/>
       </c>
-      <c r="I34" s="33" t="str">
+      <c r="I34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D59), "",PCR!D59)</f>
         <v/>
       </c>
-      <c r="J34" s="33" t="str">
+      <c r="J34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D67), "",PCR!D67)</f>
         <v/>
       </c>
-      <c r="K34" s="33" t="str">
+      <c r="K34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D75), "",PCR!D75)</f>
         <v/>
       </c>
-      <c r="L34" s="33" t="str">
+      <c r="L34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D83), "",PCR!D83)</f>
         <v/>
       </c>
-      <c r="M34" s="33" t="str">
+      <c r="M34" s="31" t="str">
         <f>IF(ISBLANK(PCR!D91), "",PCR!D91)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="33" t="str">
+      <c r="B35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D4), "",PCR!D4)</f>
         <v/>
       </c>
-      <c r="C35" s="33" t="str">
+      <c r="C35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D12), "",PCR!D12)</f>
         <v/>
       </c>
-      <c r="D35" s="33" t="str">
+      <c r="D35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D20), "",PCR!D20)</f>
         <v/>
       </c>
-      <c r="E35" s="33" t="str">
+      <c r="E35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D28), "",PCR!D28)</f>
         <v/>
       </c>
-      <c r="F35" s="33" t="str">
+      <c r="F35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D36), "",PCR!D36)</f>
         <v/>
       </c>
-      <c r="G35" s="33" t="str">
+      <c r="G35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D44), "",PCR!D44)</f>
         <v/>
       </c>
-      <c r="H35" s="33" t="str">
+      <c r="H35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D52), "",PCR!D52)</f>
         <v/>
       </c>
-      <c r="I35" s="33" t="str">
+      <c r="I35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D60), "",PCR!D60)</f>
         <v/>
       </c>
-      <c r="J35" s="33" t="str">
+      <c r="J35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D68), "",PCR!D68)</f>
         <v/>
       </c>
-      <c r="K35" s="33" t="str">
+      <c r="K35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D76), "",PCR!D76)</f>
         <v/>
       </c>
-      <c r="L35" s="33" t="str">
+      <c r="L35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D84), "",PCR!D84)</f>
         <v/>
       </c>
-      <c r="M35" s="33" t="str">
+      <c r="M35" s="31" t="str">
         <f>IF(ISBLANK(PCR!D92), "",PCR!D92)</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="33" t="str">
+      <c r="B36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D5), "",PCR!D5)</f>
         <v/>
       </c>
-      <c r="C36" s="33" t="str">
+      <c r="C36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D13), "",PCR!D13)</f>
         <v/>
       </c>
-      <c r="D36" s="33" t="str">
+      <c r="D36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D21), "",PCR!D21)</f>
         <v/>
       </c>
-      <c r="E36" s="33" t="str">
+      <c r="E36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D29), "",PCR!D29)</f>
         <v/>
       </c>
-      <c r="F36" s="33" t="str">
+      <c r="F36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D37), "",PCR!D37)</f>
         <v/>
       </c>
-      <c r="G36" s="33" t="str">
+      <c r="G36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D45), "",PCR!D45)</f>
         <v/>
       </c>
-      <c r="H36" s="33" t="str">
+      <c r="H36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D53), "",PCR!D53)</f>
         <v/>
       </c>
-      <c r="I36" s="33" t="str">
+      <c r="I36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D61), "",PCR!D61)</f>
         <v/>
       </c>
-      <c r="J36" s="33" t="str">
+      <c r="J36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D69), "",PCR!D69)</f>
         <v/>
       </c>
-      <c r="K36" s="33" t="str">
+      <c r="K36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D77), "",PCR!D77)</f>
         <v/>
       </c>
-      <c r="L36" s="33" t="str">
+      <c r="L36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D85), "",PCR!D85)</f>
         <v/>
       </c>
-      <c r="M36" s="33" t="str">
+      <c r="M36" s="31" t="str">
         <f>IF(ISBLANK(PCR!D93), "",PCR!D93)</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="33" t="str">
+      <c r="B37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D6), "",PCR!D6)</f>
         <v/>
       </c>
-      <c r="C37" s="33" t="str">
+      <c r="C37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D14), "",PCR!D14)</f>
         <v/>
       </c>
-      <c r="D37" s="33" t="str">
+      <c r="D37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D22), "",PCR!D22)</f>
         <v/>
       </c>
-      <c r="E37" s="33" t="str">
+      <c r="E37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D30), "",PCR!D30)</f>
         <v/>
       </c>
-      <c r="F37" s="33" t="str">
+      <c r="F37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D38), "",PCR!D38)</f>
         <v/>
       </c>
-      <c r="G37" s="33" t="str">
+      <c r="G37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D46), "",PCR!D46)</f>
         <v/>
       </c>
-      <c r="H37" s="33" t="str">
+      <c r="H37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D54), "",PCR!D54)</f>
         <v/>
       </c>
-      <c r="I37" s="33" t="str">
+      <c r="I37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D62), "",PCR!D62)</f>
         <v/>
       </c>
-      <c r="J37" s="33" t="str">
+      <c r="J37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D70), "",PCR!D70)</f>
         <v/>
       </c>
-      <c r="K37" s="33" t="str">
+      <c r="K37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D78), "",PCR!D78)</f>
         <v/>
       </c>
-      <c r="L37" s="33" t="str">
+      <c r="L37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D86), "",PCR!D86)</f>
         <v/>
       </c>
-      <c r="M37" s="33" t="str">
+      <c r="M37" s="31" t="str">
         <f>IF(ISBLANK(PCR!D94), "",PCR!D94)</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="33" t="str">
+      <c r="B38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D7), "",PCR!D7)</f>
         <v/>
       </c>
-      <c r="C38" s="33" t="str">
+      <c r="C38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D15), "",PCR!D15)</f>
         <v/>
       </c>
-      <c r="D38" s="33" t="str">
+      <c r="D38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D23), "",PCR!D23)</f>
         <v/>
       </c>
-      <c r="E38" s="33" t="str">
+      <c r="E38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D31), "",PCR!D31)</f>
         <v/>
       </c>
-      <c r="F38" s="33" t="str">
+      <c r="F38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D39), "",PCR!D39)</f>
         <v/>
       </c>
-      <c r="G38" s="33" t="str">
+      <c r="G38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D47), "",PCR!D47)</f>
         <v/>
       </c>
-      <c r="H38" s="33" t="str">
+      <c r="H38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D55), "",PCR!D55)</f>
         <v/>
       </c>
-      <c r="I38" s="33" t="str">
+      <c r="I38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D63), "",PCR!D63)</f>
         <v/>
       </c>
-      <c r="J38" s="33" t="str">
+      <c r="J38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D71), "",PCR!D71)</f>
         <v/>
       </c>
-      <c r="K38" s="33" t="str">
+      <c r="K38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D79), "",PCR!D79)</f>
         <v/>
       </c>
-      <c r="L38" s="33" t="str">
+      <c r="L38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D87), "",PCR!D87)</f>
         <v/>
       </c>
-      <c r="M38" s="33" t="str">
+      <c r="M38" s="31" t="str">
         <f>IF(ISBLANK(PCR!D95), "",PCR!D95)</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="33" t="str">
+      <c r="B39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D8), "",PCR!D8)</f>
         <v/>
       </c>
-      <c r="C39" s="33" t="str">
+      <c r="C39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D16), "",PCR!D16)</f>
         <v/>
       </c>
-      <c r="D39" s="33" t="str">
+      <c r="D39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D24), "",PCR!D24)</f>
         <v/>
       </c>
-      <c r="E39" s="33" t="str">
+      <c r="E39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D32), "",PCR!D32)</f>
         <v/>
       </c>
-      <c r="F39" s="33" t="str">
+      <c r="F39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D40), "",PCR!D40)</f>
         <v/>
       </c>
-      <c r="G39" s="33" t="str">
+      <c r="G39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D48), "",PCR!D48)</f>
         <v/>
       </c>
-      <c r="H39" s="33" t="str">
+      <c r="H39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D56), "",PCR!D56)</f>
         <v/>
       </c>
-      <c r="I39" s="33" t="str">
+      <c r="I39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D64), "",PCR!D64)</f>
         <v/>
       </c>
-      <c r="J39" s="33" t="str">
+      <c r="J39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D72), "",PCR!D72)</f>
         <v/>
       </c>
-      <c r="K39" s="33" t="str">
+      <c r="K39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D80), "",PCR!D80)</f>
         <v/>
       </c>
-      <c r="L39" s="33" t="str">
+      <c r="L39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D88), "",PCR!D88)</f>
         <v/>
       </c>
-      <c r="M39" s="33" t="str">
+      <c r="M39" s="31" t="str">
         <f>IF(ISBLANK(PCR!D96), "",PCR!D96)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="33" t="str">
+      <c r="B40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D9), "",PCR!D9)</f>
         <v/>
       </c>
-      <c r="C40" s="33" t="str">
+      <c r="C40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D17), "",PCR!D17)</f>
         <v/>
       </c>
-      <c r="D40" s="33" t="str">
+      <c r="D40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D25), "",PCR!D25)</f>
         <v/>
       </c>
-      <c r="E40" s="33" t="str">
+      <c r="E40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D33), "",PCR!D33)</f>
         <v/>
       </c>
-      <c r="F40" s="33" t="str">
+      <c r="F40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D41), "",PCR!D41)</f>
         <v/>
       </c>
-      <c r="G40" s="33" t="str">
+      <c r="G40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D49), "",PCR!D49)</f>
         <v/>
       </c>
-      <c r="H40" s="33" t="str">
+      <c r="H40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D57), "",PCR!D57)</f>
         <v/>
       </c>
-      <c r="I40" s="33" t="str">
+      <c r="I40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D65), "",PCR!D65)</f>
         <v/>
       </c>
-      <c r="J40" s="33" t="str">
+      <c r="J40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D73), "",PCR!D73)</f>
         <v/>
       </c>
-      <c r="K40" s="33" t="str">
+      <c r="K40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D81), "",PCR!D81)</f>
         <v/>
       </c>
-      <c r="L40" s="33" t="str">
+      <c r="L40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D89), "",PCR!D89)</f>
         <v/>
       </c>
-      <c r="M40" s="33" t="str">
+      <c r="M40" s="31" t="str">
         <f>IF(ISBLANK(PCR!D97), "",PCR!D97)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="33" t="str">
+      <c r="B41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D10), "",PCR!D10)</f>
         <v/>
       </c>
-      <c r="C41" s="33" t="str">
+      <c r="C41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D18), "",PCR!D18)</f>
         <v/>
       </c>
-      <c r="D41" s="33" t="str">
+      <c r="D41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D26), "",PCR!D26)</f>
         <v/>
       </c>
-      <c r="E41" s="33" t="str">
+      <c r="E41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D34), "",PCR!D34)</f>
         <v/>
       </c>
-      <c r="F41" s="33" t="str">
+      <c r="F41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D42), "",PCR!D42)</f>
         <v/>
       </c>
-      <c r="G41" s="33" t="str">
+      <c r="G41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D50), "",PCR!D50)</f>
         <v/>
       </c>
-      <c r="H41" s="33" t="str">
+      <c r="H41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D58), "",PCR!D58)</f>
         <v/>
       </c>
-      <c r="I41" s="33" t="str">
+      <c r="I41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D66), "",PCR!D66)</f>
         <v/>
       </c>
-      <c r="J41" s="33" t="str">
+      <c r="J41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D74), "",PCR!D74)</f>
         <v/>
       </c>
-      <c r="K41" s="33" t="str">
+      <c r="K41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D82), "",PCR!D82)</f>
         <v/>
       </c>
-      <c r="L41" s="33" t="str">
+      <c r="L41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D90), "",PCR!D90)</f>
         <v/>
       </c>
-      <c r="M41" s="33" t="str">
+      <c r="M41" s="31" t="str">
         <f>IF(ISBLANK(PCR!D98), "",PCR!D98)</f>
         <v/>
       </c>
@@ -3790,41 +3804,29 @@
       <c r="A42" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PCMOHikTmCHhdbiZ9ukz3mYHbLnxWoVg5hCmR8j12YTvLCDlRGcqzoBqax6vxjMUml4nLH11bjdhM6VJWt65Jw==" saltValue="ZnFDkddZXm6Xt+xhUwsPBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
@@ -3841,35 +3843,47 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="M22:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C11 C14:C16 H19">
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3896,17 +3910,17 @@
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7FF4FB8-46D6-44CC-B8C5-ADFDB2C0B6F7}">
-          <x14:formula1>
-            <xm:f>reference!$E$8:$E$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>H19:I19</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58C9E0CC-D820-49E0-B8FE-F2C4BD08D2E5}">
           <x14:formula1>
             <xm:f>reference!$E$3:$E$5</xm:f>
           </x14:formula1>
           <xm:sqref>C11:F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7FF4FB8-46D6-44CC-B8C5-ADFDB2C0B6F7}">
+          <x14:formula1>
+            <xm:f>reference!$E$8:$E$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>H19:I19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3923,7 +3937,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3936,2164 +3950,2166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="103" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="107"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="J2" s="58" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="106">
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="25" t="str">
-        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
-        <v/>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="27" t="str">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="24" t="str">
+        <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
+        <v/>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="26" t="str">
         <f t="shared" ref="I3:I67" si="0">IF(OR(G3="",H3=""),"",SUM(G3*H3))</f>
         <v/>
       </c>
-      <c r="J3" s="57"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62">
+      <c r="A4" s="106">
         <v>2</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62">
+      <c r="A5" s="106">
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62">
+      <c r="A6" s="106">
         <v>4</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62">
+      <c r="A7" s="106">
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
+      <c r="A8" s="106">
         <v>6</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J8" s="57"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="106">
         <v>7</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J9" s="57"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="A10" s="106">
         <v>8</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="53"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="36"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="34"/>
       <c r="I10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J10" s="57"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
+      <c r="A11" s="106">
         <v>9</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
       <c r="I11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62">
+      <c r="A12" s="106">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62">
+      <c r="A13" s="106">
         <v>11</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="62">
+      <c r="A14" s="106">
         <v>12</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="57"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62">
+      <c r="A15" s="106">
         <v>13</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="I15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="57"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62">
+      <c r="A16" s="106">
         <v>14</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="53"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
       <c r="I16" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62">
+      <c r="A17" s="106">
         <v>15</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62">
+      <c r="A18" s="106">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="53"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
       <c r="I18" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62">
+      <c r="A19" s="106">
         <v>17</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
       <c r="I19" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62">
+      <c r="A20" s="106">
         <v>18</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="53"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
       <c r="I20" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="57"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62">
+      <c r="A21" s="106">
         <v>19</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
       <c r="I21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="57"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62">
+      <c r="A22" s="106">
         <v>20</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="53"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
       <c r="I22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="62">
+      <c r="A23" s="106">
         <v>21</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="53"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="51"/>
       <c r="F23" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
       <c r="I23" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J23" s="57"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="62">
+      <c r="A24" s="106">
         <v>22</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="53"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
       <c r="I24" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62">
+      <c r="A25" s="106">
         <v>23</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="53"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
       <c r="I25" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="62">
+      <c r="A26" s="106">
         <v>24</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="53"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
       <c r="I26" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="62">
+      <c r="A27" s="106">
         <v>25</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="53"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
       <c r="I27" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="62">
+      <c r="A28" s="106">
         <v>26</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
       <c r="I28" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J28" s="57"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="62">
+      <c r="A29" s="106">
         <v>27</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="B29" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="53"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
       <c r="I29" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62">
+      <c r="A30" s="106">
         <v>28</v>
       </c>
-      <c r="B30" s="62" t="s">
+      <c r="B30" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="57"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62">
+      <c r="A31" s="106">
         <v>29</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="53"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
       <c r="I31" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="57"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="62">
+      <c r="A32" s="106">
         <v>30</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="53"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
       <c r="I32" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="57"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
+      <c r="A33" s="106">
         <v>31</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="53"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
       <c r="I33" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
+      <c r="A34" s="106">
         <v>32</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="53"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
       <c r="I34" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J34" s="57"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
+      <c r="A35" s="106">
         <v>33</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
       <c r="I35" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J35" s="57"/>
+      <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+      <c r="A36" s="106">
         <v>34</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="53"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
       <c r="I36" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J36" s="57"/>
+      <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="62">
+      <c r="A37" s="106">
         <v>35</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="53"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
       <c r="I37" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J37" s="57"/>
+      <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="62">
+      <c r="A38" s="106">
         <v>36</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="53"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
       <c r="I38" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J38" s="57"/>
+      <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62">
+      <c r="A39" s="106">
         <v>37</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="53"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
       <c r="I39" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J39" s="57"/>
+      <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="62">
+      <c r="A40" s="106">
         <v>38</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="53"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J40" s="57"/>
+      <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62">
+      <c r="A41" s="106">
         <v>39</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="53"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
       <c r="I41" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="55"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="62">
+      <c r="A42" s="106">
         <v>40</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
       <c r="I42" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="57"/>
+      <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="62">
+      <c r="A43" s="106">
         <v>41</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="53"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
       <c r="I43" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="57"/>
+      <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="62">
+      <c r="A44" s="106">
         <v>42</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="36"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="53"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="57"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62">
+      <c r="A45" s="106">
         <v>43</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="53"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J45" s="57"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62">
+      <c r="A46" s="106">
         <v>44</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="53"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
       <c r="I46" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J46" s="57"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62">
+      <c r="A47" s="106">
         <v>45</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="53"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="51"/>
       <c r="F47" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
       <c r="I47" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J47" s="57"/>
+      <c r="J47" s="55"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="62">
+      <c r="A48" s="106">
         <v>46</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="53"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
       <c r="I48" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J48" s="57"/>
+      <c r="J48" s="55"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
+      <c r="A49" s="106">
         <v>47</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="53"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
       <c r="I49" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J49" s="57"/>
+      <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
+      <c r="A50" s="106">
         <v>48</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
       <c r="I50" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J50" s="57"/>
+      <c r="J50" s="55"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
+      <c r="A51" s="106">
         <v>49</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="53"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
       <c r="I51" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J51" s="57"/>
+      <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
+      <c r="A52" s="106">
         <v>50</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="53"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
       <c r="I52" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J52" s="57"/>
+      <c r="J52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
+      <c r="A53" s="106">
         <v>51</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
       <c r="I53" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J53" s="57"/>
+      <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
+      <c r="A54" s="106">
         <v>52</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="53"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
       <c r="I54" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J54" s="57"/>
+      <c r="J54" s="55"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="62">
+      <c r="A55" s="106">
         <v>53</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
       <c r="I55" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J55" s="57"/>
+      <c r="J55" s="55"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="62">
+      <c r="A56" s="106">
         <v>54</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
       <c r="I56" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J56" s="57"/>
+      <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62">
+      <c r="A57" s="106">
         <v>55</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
       <c r="I57" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J57" s="57"/>
+      <c r="J57" s="55"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="62">
+      <c r="A58" s="106">
         <v>56</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="53"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
       <c r="I58" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J58" s="57"/>
+      <c r="J58" s="55"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="62">
+      <c r="A59" s="106">
         <v>57</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="53"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
       <c r="I59" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J59" s="57"/>
+      <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="62">
+      <c r="A60" s="106">
         <v>58</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="53"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
       <c r="I60" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J60" s="57"/>
+      <c r="J60" s="55"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="62">
+      <c r="A61" s="106">
         <v>59</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="53"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
       <c r="I61" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J61" s="57"/>
+      <c r="J61" s="55"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="62">
+      <c r="A62" s="106">
         <v>60</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="53"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
       <c r="I62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J62" s="57"/>
+      <c r="J62" s="55"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="62">
+      <c r="A63" s="106">
         <v>61</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="53"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
       <c r="I63" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J63" s="57"/>
+      <c r="J63" s="55"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="62">
+      <c r="A64" s="106">
         <v>62</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="53"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
       <c r="I64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J64" s="57"/>
+      <c r="J64" s="55"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="62">
+      <c r="A65" s="106">
         <v>63</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="106" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="53"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
       <c r="I65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J65" s="57"/>
+      <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="62">
+      <c r="A66" s="106">
         <v>64</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="53"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
       <c r="I66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J66" s="57"/>
+      <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="62">
+      <c r="A67" s="106">
         <v>65</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="53"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
       <c r="I67" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J67" s="57"/>
+      <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="62">
+      <c r="A68" s="106">
         <v>66</v>
       </c>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="53"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
       <c r="I68" s="3" t="str">
         <f t="shared" ref="I68:I98" si="1">IF(OR(G68="",H68=""),"",SUM(G68*H68))</f>
         <v/>
       </c>
-      <c r="J68" s="57"/>
+      <c r="J68" s="55"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="62">
+      <c r="A69" s="106">
         <v>67</v>
       </c>
-      <c r="B69" s="62" t="s">
+      <c r="B69" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="53"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
       <c r="I69" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J69" s="57"/>
+      <c r="J69" s="55"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="62">
+      <c r="A70" s="106">
         <v>68</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="53"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
       <c r="I70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J70" s="57"/>
+      <c r="J70" s="55"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="62">
+      <c r="A71" s="106">
         <v>69</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="53"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="53"/>
       <c r="I71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J71" s="57"/>
+      <c r="J71" s="55"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="62">
+      <c r="A72" s="106">
         <v>70</v>
       </c>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="53"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
+      <c r="G72" s="53"/>
+      <c r="H72" s="53"/>
       <c r="I72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J72" s="57"/>
+      <c r="J72" s="55"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62">
+      <c r="A73" s="106">
         <v>71</v>
       </c>
-      <c r="B73" s="62" t="s">
+      <c r="B73" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="53"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="53"/>
       <c r="I73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J73" s="57"/>
+      <c r="J73" s="55"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="62">
+      <c r="A74" s="106">
         <v>72</v>
       </c>
-      <c r="B74" s="62" t="s">
+      <c r="B74" s="106" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="53"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="53"/>
       <c r="I74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J74" s="57"/>
+      <c r="J74" s="55"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="62">
+      <c r="A75" s="106">
         <v>73</v>
       </c>
-      <c r="B75" s="62" t="s">
+      <c r="B75" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="53"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="53"/>
       <c r="I75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J75" s="57"/>
+      <c r="J75" s="55"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="62">
+      <c r="A76" s="106">
         <v>74</v>
       </c>
-      <c r="B76" s="62" t="s">
+      <c r="B76" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="53"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="53"/>
       <c r="I76" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J76" s="57"/>
+      <c r="J76" s="55"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="62">
+      <c r="A77" s="106">
         <v>75</v>
       </c>
-      <c r="B77" s="62" t="s">
+      <c r="B77" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="53"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="53"/>
       <c r="I77" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J77" s="57"/>
+      <c r="J77" s="55"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="62">
+      <c r="A78" s="106">
         <v>76</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
       <c r="I78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J78" s="57"/>
+      <c r="J78" s="55"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="62">
+      <c r="A79" s="106">
         <v>77</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="53"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
       <c r="I79" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J79" s="57"/>
+      <c r="J79" s="55"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="62">
+      <c r="A80" s="106">
         <v>78</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="53"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
       <c r="I80" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J80" s="57"/>
+      <c r="J80" s="55"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="62">
+      <c r="A81" s="106">
         <v>79</v>
       </c>
-      <c r="B81" s="62" t="s">
+      <c r="B81" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="53"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
       <c r="I81" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J81" s="57"/>
+      <c r="J81" s="55"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="62">
+      <c r="A82" s="106">
         <v>80</v>
       </c>
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="53"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
       <c r="I82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J82" s="57"/>
+      <c r="J82" s="55"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="62">
+      <c r="A83" s="106">
         <v>81</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="53"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="53"/>
       <c r="I83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J83" s="57"/>
+      <c r="J83" s="55"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="62">
+      <c r="A84" s="106">
         <v>82</v>
       </c>
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="53"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="53"/>
       <c r="I84" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J84" s="57"/>
+      <c r="J84" s="55"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="62">
+      <c r="A85" s="106">
         <v>83</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="53"/>
       <c r="I85" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J85" s="57"/>
+      <c r="J85" s="55"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="62">
+      <c r="A86" s="106">
         <v>84</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="53"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="53"/>
       <c r="I86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J86" s="57"/>
+      <c r="J86" s="55"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="62">
+      <c r="A87" s="106">
         <v>85</v>
       </c>
-      <c r="B87" s="62" t="s">
+      <c r="B87" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="53"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
       <c r="I87" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J87" s="57"/>
+      <c r="J87" s="55"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="62">
+      <c r="A88" s="106">
         <v>86</v>
       </c>
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="53"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="51"/>
       <c r="F88" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
       <c r="I88" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J88" s="57"/>
+      <c r="J88" s="55"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="62">
+      <c r="A89" s="106">
         <v>87</v>
       </c>
-      <c r="B89" s="62" t="s">
+      <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="53"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
       <c r="I89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J89" s="57"/>
+      <c r="J89" s="55"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="62">
+      <c r="A90" s="106">
         <v>88</v>
       </c>
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="36"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="53"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
       <c r="I90" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J90" s="57"/>
+      <c r="J90" s="55"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="62">
+      <c r="A91" s="106">
         <v>89</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="53"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="53"/>
       <c r="I91" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J91" s="57"/>
+      <c r="J91" s="55"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="62">
+      <c r="A92" s="106">
         <v>90</v>
       </c>
-      <c r="B92" s="62" t="s">
+      <c r="B92" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="53"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="53"/>
       <c r="I92" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J92" s="57"/>
+      <c r="J92" s="55"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="62">
+      <c r="A93" s="106">
         <v>91</v>
       </c>
-      <c r="B93" s="62" t="s">
+      <c r="B93" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="53"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="53"/>
       <c r="I93" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J93" s="57"/>
+      <c r="J93" s="55"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="62">
+      <c r="A94" s="106">
         <v>92</v>
       </c>
-      <c r="B94" s="62" t="s">
+      <c r="B94" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="53"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
       <c r="I94" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J94" s="57"/>
+      <c r="J94" s="55"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="62">
+      <c r="A95" s="106">
         <v>93</v>
       </c>
-      <c r="B95" s="62" t="s">
+      <c r="B95" s="106" t="s">
         <v>129</v>
       </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="53"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
       <c r="I95" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J95" s="57"/>
+      <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="62">
+      <c r="A96" s="106">
         <v>94</v>
       </c>
-      <c r="B96" s="62" t="s">
+      <c r="B96" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="53"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
       <c r="I96" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J96" s="57"/>
+      <c r="J96" s="55"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="62">
+      <c r="A97" s="106">
         <v>95</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="B97" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="53"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="15" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
       <c r="I97" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J97" s="57"/>
+      <c r="J97" s="55"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64">
+      <c r="A98" s="108">
         <v>96</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="54"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="52"/>
       <c r="F98" s="22" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="56"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
       <c r="I98" s="23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J98" s="57"/>
+      <c r="J98" s="55"/>
     </row>
     <row r="99" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="18"/>
@@ -6192,19 +6208,22 @@
       <c r="F111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vN7tAFPV/5TXjuL68aUnhIQog4VLYhZOQmQEZg0/qj5BIu7VwnJifUcwE81Lleo9e3I/q36AnVZooYCAlxsdQg==" saltValue="o2rWmZSWIvfEYT9MY+h2iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:J98" name="AllowSortFilter"/>
+  </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E98 G3:H98 J3:J98">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6263,8 +6282,8 @@
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6292,78 +6311,78 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="E2" s="40" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="E2" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="36" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="59" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="61" t="s">
+      <c r="P4" s="59" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>219</v>
@@ -6374,13 +6393,13 @@
       <c r="G5" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="59" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6391,7 +6410,7 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="37" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6400,7 +6419,7 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>226</v>
@@ -6423,8 +6442,8 @@
       <c r="K7" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="39" t="s">
-        <v>260</v>
+      <c r="M7" s="37" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -6449,50 +6468,56 @@
       <c r="K8">
         <v>1.5</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9">
-        <v>14.5</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1.5</v>
-      </c>
-      <c r="M9" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M9" s="37" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M10" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10">
+        <v>14.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1.5</v>
+      </c>
+      <c r="M10" s="37" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -6519,7 +6544,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6535,199 +6560,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="45"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="44"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="42"/>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="42"/>
     </row>
     <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A18" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="44" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A19" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A20" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A21" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-    </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A18" s="45" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A22" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-    </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A19" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-    </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A20" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-    </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-    </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A22" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -6816,7 +6841,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_assay)=0,"",exp_assay)</f>

--- a/templates/Plasmodium/NOMADS_PCR_Plasmo_Worksheet.xlsx
+++ b/templates/Plasmodium/NOMADS_PCR_Plasmo_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6896F059-AF23-44C1-BF5B-8FE247FF51A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B8E124-20BE-416A-99B0-D7BC652C70B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -749,24 +749,6 @@
   </si>
   <si>
     <t>User-defined</t>
-  </si>
-  <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Fiona Waiting</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>Terence Broad</t>
-  </si>
-  <si>
-    <t>TB</t>
   </si>
   <si>
     <t>NB. The entries above are used for dropdown options in other tabs. To add additional entries and maintain the dropdowns, do the following:</t>
@@ -1160,6 +1142,24 @@
   </si>
   <si>
     <t>Addition of EquiPhi (not finished)</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>Person C</t>
   </si>
 </sst>
 </file>
@@ -1757,6 +1757,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,18 +1898,11 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1905,19 +1918,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1929,113 +1929,6 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2190,6 +2083,25 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -2211,6 +2123,30 @@
         <horizontal/>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2292,6 +2228,40 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2321,6 +2291,36 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2335,23 +2335,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:J98" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="15">
       <calculatedColumnFormula>IF(OR(G3="",H3=""),"",SUM(G3*H3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2369,12 +2369,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="E2:G5" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2448,19 +2448,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:F97" totalsRowShown="0">
   <autoFilter ref="A1:F97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(PCR!C3),PCR!C3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(PCR!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="4">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -2784,263 +2784,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="K2" s="64" t="s">
+      <c r="H2" s="78"/>
+      <c r="K2" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="64"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
       <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="62"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="63"/>
+      <c r="L4" s="69"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="79" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!M3:N5,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="85" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!M3:N8,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="K5" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="69"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="80" t="str">
+      <c r="B6" s="82"/>
+      <c r="C6" s="86" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="27"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
       <c r="G7" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
       <c r="G8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="88" t="str">
+      <c r="B9" s="99"/>
+      <c r="C9" s="94" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="20" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94" t="str">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
       <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="82" t="str">
+      <c r="B12" s="82"/>
+      <c r="C12" s="88" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="20" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="81" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="82" t="str">
+      <c r="B13" s="82"/>
+      <c r="C13" s="88" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="20" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3064,31 +3064,31 @@
         <v>0.1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
+        <v>219</v>
+      </c>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="96" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96" t="str">
+      <c r="E20" s="102"/>
+      <c r="F20" s="102" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G20" s="96"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="8"/>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="83"/>
+      <c r="K20" s="89"/>
       <c r="L20" s="12" t="s">
         <v>14</v>
       </c>
@@ -3097,171 +3097,171 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
+      <c r="A21" s="74">
         <f>pcr_dna_source</f>
         <v>0</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="67">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="73">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="97" t="s">
+      <c r="E21" s="73"/>
+      <c r="F21" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="97"/>
+      <c r="G21" s="103"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="65">
+      <c r="J21" s="71">
         <v>93</v>
       </c>
-      <c r="K21" s="65"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="92">
+      <c r="A22" s="98">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],3,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="67">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="73">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],4,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="91">
+      <c r="E22" s="73"/>
+      <c r="F22" s="97">
         <f>SUM(D22*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="91"/>
+      <c r="G22" s="97"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="66">
+      <c r="J22" s="72">
         <v>98</v>
       </c>
-      <c r="K22" s="66"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="70" t="s">
+      <c r="M22" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="92" t="str">
+      <c r="A23" s="98" t="str">
         <f>IF(D23=0,"-","10mM dNTPs")</f>
         <v>-</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="67">
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="73">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],5,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="91" t="str">
+      <c r="E23" s="73"/>
+      <c r="F23" s="97" t="str">
         <f>IF(D23=0,"",SUM(D23*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G23" s="91"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="67">
+      <c r="J23" s="73">
         <v>50</v>
       </c>
-      <c r="K23" s="67"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="M23" s="70"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="92" t="str">
+      <c r="A24" s="98" t="str">
         <f>IF(D24=0,"-","Buffer")</f>
         <v>-</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="67">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="73">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],6,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="91" t="str">
+      <c r="E24" s="73"/>
+      <c r="F24" s="97" t="str">
         <f>IF(D24=0,"",SUM(D24*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G24" s="91"/>
+      <c r="G24" s="97"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="68">
+      <c r="J24" s="74">
         <v>60</v>
       </c>
-      <c r="K24" s="68"/>
+      <c r="K24" s="74"/>
       <c r="L24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="70"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="67">
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="73">
         <f>IFERROR(VLOOKUP(pcr_dna_source,tbl_template[],7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="91" t="str">
+      <c r="E25" s="73"/>
+      <c r="F25" s="97" t="str">
         <f>IF(D25=0,"",SUM(D25*exp_rxns*(1+$D$19)))</f>
         <v/>
       </c>
-      <c r="G25" s="91"/>
+      <c r="G25" s="97"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="67">
+      <c r="J25" s="73">
         <v>60</v>
       </c>
-      <c r="K25" s="67"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92">
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98">
         <f>SUM(25-SUM(D21:E25))</f>
         <v>25</v>
       </c>
-      <c r="E26" s="92"/>
-      <c r="F26" s="91">
+      <c r="E26" s="98"/>
+      <c r="F26" s="97">
         <f>SUM(D26*exp_rxns*(1+$D$19))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="91"/>
+      <c r="G26" s="97"/>
       <c r="H26" s="8"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="90">
+      <c r="D27" s="96">
         <f>SUM(D21:D26)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="90"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="14" t="str">
         <f>CONCATENATE("Add ",SUM(D22:D26)," µl of MM to each well")</f>
         <v>Add 25 µl of MM to each well</v>
@@ -3280,22 +3280,22 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3309,11 +3309,11 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="8"/>
-      <c r="K30" s="61" t="s">
+      <c r="K30" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -3804,7 +3804,7 @@
       <c r="A42" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PCMOHikTmCHhdbiZ9ukz3mYHbLnxWoVg5hCmR8j12YTvLCDlRGcqzoBqax6vxjMUml4nLH11bjdhM6VJWt65Jw==" saltValue="ZnFDkddZXm6Xt+xhUwsPBQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="70">
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
@@ -3878,12 +3878,12 @@
     <mergeCell ref="M22:M24"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C4 C11 C14:C16 H19">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3898,18 +3898,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
-          <x14:formula1>
-            <xm:f>reference!$P$3:$P$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:F7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
-          <x14:formula1>
-            <xm:f>reference!$M$3:$M$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58C9E0CC-D820-49E0-B8FE-F2C4BD08D2E5}">
           <x14:formula1>
             <xm:f>reference!$E$3:$E$5</xm:f>
@@ -3921,6 +3909,18 @@
             <xm:f>reference!$E$8:$E$10</xm:f>
           </x14:formula1>
           <xm:sqref>H19:I19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
+          <x14:formula1>
+            <xm:f>reference!$M$3:$M$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
+          <x14:formula1>
+            <xm:f>reference!$P$3:$P$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3937,7 +3937,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3950,28 +3950,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99" t="s">
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="105"/>
+      <c r="E1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="62" t="s">
         <v>133</v>
       </c>
       <c r="C2" s="56" t="s">
@@ -4000,10 +4000,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106">
+      <c r="A3" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="64" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="34"/>
@@ -4022,10 +4022,10 @@
       <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106">
+      <c r="A4" s="63">
         <v>2</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="64" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="34"/>
@@ -4044,10 +4044,10 @@
       <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106">
+      <c r="A5" s="63">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="64" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="34"/>
@@ -4066,10 +4066,10 @@
       <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+      <c r="A6" s="63">
         <v>4</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="64" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="34"/>
@@ -4088,10 +4088,10 @@
       <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="64" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="34"/>
@@ -4110,10 +4110,10 @@
       <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106">
+      <c r="A8" s="63">
         <v>6</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="64" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="34"/>
@@ -4132,10 +4132,10 @@
       <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106">
+      <c r="A9" s="63">
         <v>7</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="64" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="34"/>
@@ -4154,10 +4154,10 @@
       <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
+      <c r="A10" s="63">
         <v>8</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="64" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="34"/>
@@ -4176,10 +4176,10 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="A11" s="63">
         <v>9</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="64" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="34"/>
@@ -4198,10 +4198,10 @@
       <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106">
+      <c r="A12" s="63">
         <v>10</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="34"/>
@@ -4220,10 +4220,10 @@
       <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106">
+      <c r="A13" s="63">
         <v>11</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="34"/>
@@ -4242,10 +4242,10 @@
       <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+      <c r="A14" s="63">
         <v>12</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="64" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="34"/>
@@ -4264,10 +4264,10 @@
       <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+      <c r="A15" s="63">
         <v>13</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="64" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="34"/>
@@ -4286,10 +4286,10 @@
       <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106">
+      <c r="A16" s="63">
         <v>14</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="64" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="34"/>
@@ -4308,10 +4308,10 @@
       <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
+      <c r="A17" s="63">
         <v>15</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="64" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="34"/>
@@ -4330,10 +4330,10 @@
       <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
+      <c r="A18" s="63">
         <v>16</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="34"/>
@@ -4352,10 +4352,10 @@
       <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+      <c r="A19" s="63">
         <v>17</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="64" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="34"/>
@@ -4374,10 +4374,10 @@
       <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106">
+      <c r="A20" s="63">
         <v>18</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="64" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="34"/>
@@ -4396,10 +4396,10 @@
       <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106">
+      <c r="A21" s="63">
         <v>19</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="64" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="34"/>
@@ -4418,10 +4418,10 @@
       <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106">
+      <c r="A22" s="63">
         <v>20</v>
       </c>
-      <c r="B22" s="106" t="s">
+      <c r="B22" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="34"/>
@@ -4440,10 +4440,10 @@
       <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106">
+      <c r="A23" s="63">
         <v>21</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="34"/>
@@ -4462,10 +4462,10 @@
       <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106">
+      <c r="A24" s="63">
         <v>22</v>
       </c>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="63" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="34"/>
@@ -4484,10 +4484,10 @@
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106">
+      <c r="A25" s="63">
         <v>23</v>
       </c>
-      <c r="B25" s="106" t="s">
+      <c r="B25" s="63" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="34"/>
@@ -4506,10 +4506,10 @@
       <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="106">
+      <c r="A26" s="63">
         <v>24</v>
       </c>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="63" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="34"/>
@@ -4528,10 +4528,10 @@
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106">
+      <c r="A27" s="63">
         <v>25</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="63" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="34"/>
@@ -4550,10 +4550,10 @@
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106">
+      <c r="A28" s="63">
         <v>26</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="63" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="34"/>
@@ -4572,10 +4572,10 @@
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106">
+      <c r="A29" s="63">
         <v>27</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="34"/>
@@ -4594,10 +4594,10 @@
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="106">
+      <c r="A30" s="63">
         <v>28</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="34"/>
@@ -4616,10 +4616,10 @@
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106">
+      <c r="A31" s="63">
         <v>29</v>
       </c>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="63" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="34"/>
@@ -4638,10 +4638,10 @@
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="106">
+      <c r="A32" s="63">
         <v>30</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="63" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="34"/>
@@ -4660,10 +4660,10 @@
       <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106">
+      <c r="A33" s="63">
         <v>31</v>
       </c>
-      <c r="B33" s="106" t="s">
+      <c r="B33" s="63" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="34"/>
@@ -4682,10 +4682,10 @@
       <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="106">
+      <c r="A34" s="63">
         <v>32</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="63" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="34"/>
@@ -4704,10 +4704,10 @@
       <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106">
+      <c r="A35" s="63">
         <v>33</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="63" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="34"/>
@@ -4726,10 +4726,10 @@
       <c r="J35" s="55"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="106">
+      <c r="A36" s="63">
         <v>34</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="63" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="34"/>
@@ -4748,10 +4748,10 @@
       <c r="J36" s="55"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106">
+      <c r="A37" s="63">
         <v>35</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="63" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="34"/>
@@ -4770,10 +4770,10 @@
       <c r="J37" s="55"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="106">
+      <c r="A38" s="63">
         <v>36</v>
       </c>
-      <c r="B38" s="106" t="s">
+      <c r="B38" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="34"/>
@@ -4792,10 +4792,10 @@
       <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106">
+      <c r="A39" s="63">
         <v>37</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="63" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="34"/>
@@ -4814,10 +4814,10 @@
       <c r="J39" s="55"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="106">
+      <c r="A40" s="63">
         <v>38</v>
       </c>
-      <c r="B40" s="106" t="s">
+      <c r="B40" s="63" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="34"/>
@@ -4836,10 +4836,10 @@
       <c r="J40" s="55"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="106">
+      <c r="A41" s="63">
         <v>39</v>
       </c>
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="63" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="34"/>
@@ -4858,10 +4858,10 @@
       <c r="J41" s="55"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="106">
+      <c r="A42" s="63">
         <v>40</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="63" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="34"/>
@@ -4880,10 +4880,10 @@
       <c r="J42" s="55"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106">
+      <c r="A43" s="63">
         <v>41</v>
       </c>
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="63" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="34"/>
@@ -4902,10 +4902,10 @@
       <c r="J43" s="55"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="106">
+      <c r="A44" s="63">
         <v>42</v>
       </c>
-      <c r="B44" s="106" t="s">
+      <c r="B44" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="34"/>
@@ -4924,10 +4924,10 @@
       <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="106">
+      <c r="A45" s="63">
         <v>43</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="63" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="34"/>
@@ -4946,10 +4946,10 @@
       <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106">
+      <c r="A46" s="63">
         <v>44</v>
       </c>
-      <c r="B46" s="106" t="s">
+      <c r="B46" s="63" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="34"/>
@@ -4968,10 +4968,10 @@
       <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106">
+      <c r="A47" s="63">
         <v>45</v>
       </c>
-      <c r="B47" s="106" t="s">
+      <c r="B47" s="63" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="34"/>
@@ -4990,10 +4990,10 @@
       <c r="J47" s="55"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="106">
+      <c r="A48" s="63">
         <v>46</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="63" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="34"/>
@@ -5012,10 +5012,10 @@
       <c r="J48" s="55"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106">
+      <c r="A49" s="63">
         <v>47</v>
       </c>
-      <c r="B49" s="106" t="s">
+      <c r="B49" s="63" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="34"/>
@@ -5034,10 +5034,10 @@
       <c r="J49" s="55"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106">
+      <c r="A50" s="63">
         <v>48</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="63" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="34"/>
@@ -5056,10 +5056,10 @@
       <c r="J50" s="55"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106">
+      <c r="A51" s="63">
         <v>49</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="63" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="34"/>
@@ -5078,10 +5078,10 @@
       <c r="J51" s="55"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="106">
+      <c r="A52" s="63">
         <v>50</v>
       </c>
-      <c r="B52" s="106" t="s">
+      <c r="B52" s="63" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="34"/>
@@ -5100,10 +5100,10 @@
       <c r="J52" s="55"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106">
+      <c r="A53" s="63">
         <v>51</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="63" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="34"/>
@@ -5122,10 +5122,10 @@
       <c r="J53" s="55"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106">
+      <c r="A54" s="63">
         <v>52</v>
       </c>
-      <c r="B54" s="106" t="s">
+      <c r="B54" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="34"/>
@@ -5144,10 +5144,10 @@
       <c r="J54" s="55"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106">
+      <c r="A55" s="63">
         <v>53</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="34"/>
@@ -5166,10 +5166,10 @@
       <c r="J55" s="55"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="106">
+      <c r="A56" s="63">
         <v>54</v>
       </c>
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="63" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="34"/>
@@ -5188,10 +5188,10 @@
       <c r="J56" s="55"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="106">
+      <c r="A57" s="63">
         <v>55</v>
       </c>
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="63" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="34"/>
@@ -5210,10 +5210,10 @@
       <c r="J57" s="55"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="106">
+      <c r="A58" s="63">
         <v>56</v>
       </c>
-      <c r="B58" s="106" t="s">
+      <c r="B58" s="63" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="34"/>
@@ -5232,10 +5232,10 @@
       <c r="J58" s="55"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="106">
+      <c r="A59" s="63">
         <v>57</v>
       </c>
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="34"/>
@@ -5254,10 +5254,10 @@
       <c r="J59" s="55"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="106">
+      <c r="A60" s="63">
         <v>58</v>
       </c>
-      <c r="B60" s="106" t="s">
+      <c r="B60" s="63" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="34"/>
@@ -5276,10 +5276,10 @@
       <c r="J60" s="55"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="106">
+      <c r="A61" s="63">
         <v>59</v>
       </c>
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="63" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="34"/>
@@ -5298,10 +5298,10 @@
       <c r="J61" s="55"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="106">
+      <c r="A62" s="63">
         <v>60</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="63" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="34"/>
@@ -5320,10 +5320,10 @@
       <c r="J62" s="55"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="106">
+      <c r="A63" s="63">
         <v>61</v>
       </c>
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="63" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="34"/>
@@ -5342,10 +5342,10 @@
       <c r="J63" s="55"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="106">
+      <c r="A64" s="63">
         <v>62</v>
       </c>
-      <c r="B64" s="106" t="s">
+      <c r="B64" s="63" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="34"/>
@@ -5364,10 +5364,10 @@
       <c r="J64" s="55"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106">
+      <c r="A65" s="63">
         <v>63</v>
       </c>
-      <c r="B65" s="106" t="s">
+      <c r="B65" s="63" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="34"/>
@@ -5386,10 +5386,10 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="106">
+      <c r="A66" s="63">
         <v>64</v>
       </c>
-      <c r="B66" s="106" t="s">
+      <c r="B66" s="63" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="34"/>
@@ -5408,10 +5408,10 @@
       <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106">
+      <c r="A67" s="63">
         <v>65</v>
       </c>
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="63" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="34"/>
@@ -5430,10 +5430,10 @@
       <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="106">
+      <c r="A68" s="63">
         <v>66</v>
       </c>
-      <c r="B68" s="106" t="s">
+      <c r="B68" s="63" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="34"/>
@@ -5452,10 +5452,10 @@
       <c r="J68" s="55"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106">
+      <c r="A69" s="63">
         <v>67</v>
       </c>
-      <c r="B69" s="106" t="s">
+      <c r="B69" s="63" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="34"/>
@@ -5474,10 +5474,10 @@
       <c r="J69" s="55"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106">
+      <c r="A70" s="63">
         <v>68</v>
       </c>
-      <c r="B70" s="106" t="s">
+      <c r="B70" s="63" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="34"/>
@@ -5496,10 +5496,10 @@
       <c r="J70" s="55"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106">
+      <c r="A71" s="63">
         <v>69</v>
       </c>
-      <c r="B71" s="106" t="s">
+      <c r="B71" s="63" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="34"/>
@@ -5518,10 +5518,10 @@
       <c r="J71" s="55"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="106">
+      <c r="A72" s="63">
         <v>70</v>
       </c>
-      <c r="B72" s="106" t="s">
+      <c r="B72" s="63" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="34"/>
@@ -5540,10 +5540,10 @@
       <c r="J72" s="55"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106">
+      <c r="A73" s="63">
         <v>71</v>
       </c>
-      <c r="B73" s="106" t="s">
+      <c r="B73" s="63" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="34"/>
@@ -5562,10 +5562,10 @@
       <c r="J73" s="55"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="106">
+      <c r="A74" s="63">
         <v>72</v>
       </c>
-      <c r="B74" s="106" t="s">
+      <c r="B74" s="63" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="34"/>
@@ -5584,10 +5584,10 @@
       <c r="J74" s="55"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="106">
+      <c r="A75" s="63">
         <v>73</v>
       </c>
-      <c r="B75" s="106" t="s">
+      <c r="B75" s="63" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="34"/>
@@ -5606,10 +5606,10 @@
       <c r="J75" s="55"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="106">
+      <c r="A76" s="63">
         <v>74</v>
       </c>
-      <c r="B76" s="106" t="s">
+      <c r="B76" s="63" t="s">
         <v>112</v>
       </c>
       <c r="C76" s="34"/>
@@ -5628,10 +5628,10 @@
       <c r="J76" s="55"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106">
+      <c r="A77" s="63">
         <v>75</v>
       </c>
-      <c r="B77" s="106" t="s">
+      <c r="B77" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="34"/>
@@ -5650,10 +5650,10 @@
       <c r="J77" s="55"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="106">
+      <c r="A78" s="63">
         <v>76</v>
       </c>
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="63" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="34"/>
@@ -5672,10 +5672,10 @@
       <c r="J78" s="55"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="106">
+      <c r="A79" s="63">
         <v>77</v>
       </c>
-      <c r="B79" s="106" t="s">
+      <c r="B79" s="63" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="34"/>
@@ -5694,10 +5694,10 @@
       <c r="J79" s="55"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="106">
+      <c r="A80" s="63">
         <v>78</v>
       </c>
-      <c r="B80" s="106" t="s">
+      <c r="B80" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="34"/>
@@ -5716,10 +5716,10 @@
       <c r="J80" s="55"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="106">
+      <c r="A81" s="63">
         <v>79</v>
       </c>
-      <c r="B81" s="106" t="s">
+      <c r="B81" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="34"/>
@@ -5738,10 +5738,10 @@
       <c r="J81" s="55"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106">
+      <c r="A82" s="63">
         <v>80</v>
       </c>
-      <c r="B82" s="106" t="s">
+      <c r="B82" s="63" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="34"/>
@@ -5760,10 +5760,10 @@
       <c r="J82" s="55"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="106">
+      <c r="A83" s="63">
         <v>81</v>
       </c>
-      <c r="B83" s="106" t="s">
+      <c r="B83" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="34"/>
@@ -5782,10 +5782,10 @@
       <c r="J83" s="55"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="106">
+      <c r="A84" s="63">
         <v>82</v>
       </c>
-      <c r="B84" s="106" t="s">
+      <c r="B84" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="34"/>
@@ -5804,10 +5804,10 @@
       <c r="J84" s="55"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106">
+      <c r="A85" s="63">
         <v>83</v>
       </c>
-      <c r="B85" s="106" t="s">
+      <c r="B85" s="63" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="34"/>
@@ -5826,10 +5826,10 @@
       <c r="J85" s="55"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="106">
+      <c r="A86" s="63">
         <v>84</v>
       </c>
-      <c r="B86" s="106" t="s">
+      <c r="B86" s="63" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="34"/>
@@ -5848,10 +5848,10 @@
       <c r="J86" s="55"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106">
+      <c r="A87" s="63">
         <v>85</v>
       </c>
-      <c r="B87" s="106" t="s">
+      <c r="B87" s="63" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="34"/>
@@ -5870,10 +5870,10 @@
       <c r="J87" s="55"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="106">
+      <c r="A88" s="63">
         <v>86</v>
       </c>
-      <c r="B88" s="106" t="s">
+      <c r="B88" s="63" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="34"/>
@@ -5892,10 +5892,10 @@
       <c r="J88" s="55"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106">
+      <c r="A89" s="63">
         <v>87</v>
       </c>
-      <c r="B89" s="106" t="s">
+      <c r="B89" s="63" t="s">
         <v>124</v>
       </c>
       <c r="C89" s="34"/>
@@ -5914,10 +5914,10 @@
       <c r="J89" s="55"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="106">
+      <c r="A90" s="63">
         <v>88</v>
       </c>
-      <c r="B90" s="106" t="s">
+      <c r="B90" s="63" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="34"/>
@@ -5936,10 +5936,10 @@
       <c r="J90" s="55"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="106">
+      <c r="A91" s="63">
         <v>89</v>
       </c>
-      <c r="B91" s="106" t="s">
+      <c r="B91" s="63" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="34"/>
@@ -5958,10 +5958,10 @@
       <c r="J91" s="55"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="106">
+      <c r="A92" s="63">
         <v>90</v>
       </c>
-      <c r="B92" s="106" t="s">
+      <c r="B92" s="63" t="s">
         <v>126</v>
       </c>
       <c r="C92" s="34"/>
@@ -5980,10 +5980,10 @@
       <c r="J92" s="55"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="106">
+      <c r="A93" s="63">
         <v>91</v>
       </c>
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="63" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="34"/>
@@ -6002,10 +6002,10 @@
       <c r="J93" s="55"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="106">
+      <c r="A94" s="63">
         <v>92</v>
       </c>
-      <c r="B94" s="106" t="s">
+      <c r="B94" s="63" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="34"/>
@@ -6024,10 +6024,10 @@
       <c r="J94" s="55"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="106">
+      <c r="A95" s="63">
         <v>93</v>
       </c>
-      <c r="B95" s="106" t="s">
+      <c r="B95" s="63" t="s">
         <v>129</v>
       </c>
       <c r="C95" s="34"/>
@@ -6046,10 +6046,10 @@
       <c r="J95" s="55"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="106">
+      <c r="A96" s="63">
         <v>94</v>
       </c>
-      <c r="B96" s="106" t="s">
+      <c r="B96" s="63" t="s">
         <v>130</v>
       </c>
       <c r="C96" s="34"/>
@@ -6068,10 +6068,10 @@
       <c r="J96" s="55"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106">
+      <c r="A97" s="63">
         <v>95</v>
       </c>
-      <c r="B97" s="106" t="s">
+      <c r="B97" s="63" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="34"/>
@@ -6090,10 +6090,10 @@
       <c r="J97" s="55"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="108">
+      <c r="A98" s="65">
         <v>96</v>
       </c>
-      <c r="B98" s="108" t="s">
+      <c r="B98" s="65" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="34"/>
@@ -6208,7 +6208,7 @@
       <c r="F111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vN7tAFPV/5TXjuL68aUnhIQog4VLYhZOQmQEZg0/qj5BIu7VwnJifUcwE81Lleo9e3I/q36AnVZooYCAlxsdQg==" saltValue="o2rWmZSWIvfEYT9MY+h2iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:J98" name="AllowSortFilter"/>
   </protectedRanges>
@@ -6218,12 +6218,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E98 G3:H98 J3:J98">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6282,8 +6282,8 @@
   </sheetPr>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6332,7 +6332,7 @@
         <v>153</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -6347,13 +6347,13 @@
         <v>146</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -6368,13 +6368,13 @@
         <v>149</v>
       </c>
       <c r="M4" s="59" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="P4" s="59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6385,22 +6385,22 @@
       <c r="C5" s="29"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M5" s="59" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="P5" s="59" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -6410,9 +6410,9 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="37" t="s">
-        <v>214</v>
-      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="P6" s="59"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6422,39 +6422,39 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>227</v>
       </c>
-      <c r="H7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I7" t="s">
-        <v>232</v>
-      </c>
-      <c r="J7" t="s">
-        <v>233</v>
-      </c>
       <c r="K7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>258</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>0.3</v>
@@ -6468,36 +6468,36 @@
       <c r="K8">
         <v>1.5</v>
       </c>
-      <c r="M8" s="37" t="s">
-        <v>215</v>
-      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="P8" s="59"/>
     </row>
     <row r="9" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H10">
         <v>14.5</v>
@@ -6512,19 +6512,28 @@
         <v>1.5</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M12" s="37" t="s">
+        <v>210</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M13" s="37" t="s">
+        <v>211</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
@@ -6544,9 +6553,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6561,14 +6568,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="41" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="43" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -6580,14 +6587,14 @@
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="44" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="42" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -6597,7 +6604,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C6" s="42"/>
     </row>
@@ -6606,7 +6613,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" s="42"/>
     </row>
@@ -6615,7 +6622,7 @@
         <v>179</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C8" s="42"/>
     </row>
@@ -6624,16 +6631,16 @@
         <v>180</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="47" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C10" s="42"/>
     </row>
@@ -6642,13 +6649,13 @@
         <v>183</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="42"/>
@@ -6660,70 +6667,70 @@
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="42" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="42" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="42" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="43" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="43" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="43" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="43" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="43" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="49" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -6735,21 +6742,21 @@
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="44" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="42" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -6819,7 +6826,7 @@
         <v>177</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6877,7 +6884,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="38/yEmFxISJT1sY8Z2orWimA3cEyEJZ0P1DXv9yg/yio8fwMqxXUFmuz44H2ybJU+WY3aTg/nsN+nWFHZW5RJw==" saltValue="dQEaq+u+fjoGcyZDox/wsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9422,7 +9429,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gImGrmp2o3UiDY24WKxkeSamnbqf1a4RkWy71gBBjfAtaFGmC6+87YsFUuPy0KC3L0T1AWKI0bIYSKrchhWDWg==" saltValue="NqgZuzYVPt0BnXb43QJg9w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
